--- a/data/ActiTimeLoginData.xlsx
+++ b/data/ActiTimeLoginData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>2d2</t>
+  </si>
+  <si>
+    <t>jhhhi</t>
+  </si>
+  <si>
+    <t>uhuhu</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +476,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -500,7 +508,9 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
